--- a/document/data source_課程資料/技高/skills_info/skills_info_數學B1.xlsx
+++ b/document/data source_課程資料/技高/skills_info/skills_info_數學B1.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\技高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6326"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="重讀一次 「數學B1」(技職) 的完整教材 這是這個系統的使用" sheetId="1" r:id="rId4"/>
+    <sheet name="重讀一次 「數學B1」(技職) 的完整教材 這是這個系統的使用" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生中點公式為「兩坐標相加除以 2」。</t>
-  </si>
-  <si>
     <t>abs_eq_simple</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練解 |x| = c (c &gt; 0) 形式的方程式，得 x = ±c。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 |x| = c (c&gt;0) 的解為 x = c 或 x = -c。</t>
-  </si>
-  <si>
     <t>abs_ineq_less_simple</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練解 |x| &lt; c (c &gt; 0) 形式的不等式，得 -c &lt; x &lt; c。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 |x| &lt; c (c&gt;0) 的解為 -c &lt; x &lt; c（夾在中間）。</t>
-  </si>
-  <si>
     <t>abs_ineq_greater_simple</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>熟練解 |x| &gt; c (c &gt; 0) 形式的不等式，得 x &gt; c 或 x &lt; -c。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 |x| &gt; c (c&gt;0) 的解為 x &gt; c 或 x &lt; -c（大於大的，小於小的）。</t>
-  </si>
-  <si>
     <t>plane_distance_formula</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>熟練計算平面坐標上兩點 P₁(x₁, y₁) 與 P₂(x₂, y₂) 之間的距離。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生距離公式 d = √((x₂-x₁)² + (y₂-y₁)²)，並檢查平方和計算。</t>
-  </si>
-  <si>
     <t>plane_midpoint_formula</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
     <t>熟練計算平面坐標上兩點 P₁(x₁, y₁) 與 P₂(x₂, y₂) 的中點 M 坐標。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生中點 M = ( (x₁+x₂)/2 , (y₁+y₂)/2 )。</t>
-  </si>
-  <si>
     <t>plane_section_formula</t>
   </si>
   <si>
@@ -151,9 +141,6 @@
     <t>熟練應用平面分點公式（內分點 P = (mB+nA)/(m+n)）求坐標。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，請學生複習 P = ( (nx₁+mx₂)/(m+n) , (ny₁+my₂)/(m+n) )，並注意 m, n 的對應位置（交叉相乘）。</t>
-  </si>
-  <si>
     <t>function_vertical_line_test</t>
   </si>
   <si>
@@ -166,9 +153,6 @@
     <t>熟練使用垂直線檢驗法判斷圖形是否為 y 對 x 的函數。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「任一條」垂直 x 軸的直線，與圖形「最多」只能有一個交點，才是函數圖形。</t>
-  </si>
-  <si>
     <t>quadratic_ineq_solve_d_gt_0</t>
   </si>
   <si>
@@ -181,9 +165,6 @@
     <t>熟練求解 (x-α)(x-β) &gt; 0 (或 &lt; 0) 形式的不等式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生畫數線，標出兩根 α, β。若 &gt; 0 則解為 x &gt; β 或 x &lt; α（兩側）；若 &lt; 0 則解為 α &lt; x &lt; β（中間）。</t>
-  </si>
-  <si>
     <t>quadratic_ineq_solve_d_eq_0</t>
   </si>
   <si>
@@ -196,9 +177,6 @@
     <t>熟練求解 (x-α)² &gt; 0 (或 &lt;, ≥, ≤) 形式的不等式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生思考 (x-α)²（平方恆大於等於0）。(x-α)² &gt; 0 的解為 x ≠ α；(x-α)² &lt; 0 無解。</t>
-  </si>
-  <si>
     <t>quadratic_ineq_solve_d_lt_0</t>
   </si>
   <si>
@@ -211,9 +189,6 @@
     <t>熟練求解 D &lt; 0 形式的二次不等式（恆正或恆負）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生判斷 D &lt; 0 且 a &gt; 0（開口向上），則 ax²+bx+c 恆正；若 D &lt; 0 且 a &lt; 0（開口向下），則 ax²+bx+c 恆負。</t>
-  </si>
-  <si>
     <t>line_eq_two_point</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練使用兩點 (x₁, y₁) 和 (x₂, y₂) 寫出直線方程式 y - y₁ = m(x - x₁)，其中 m = (y₂-y₁)/(x₂-x₁)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生先算斜率 m = (y₂-y₁)/(x₂-x₁)，再任選一點代入點斜式 y - y₁ = m(x - x₁)。</t>
-  </si>
-  <si>
     <t>line_eq_intercept</t>
   </si>
   <si>
@@ -244,9 +216,6 @@
     <t>熟練使用 x 截距 a 和 y 截距 b 寫出直線方程式 (x/a) + (y/b) = 1。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生截距式 (x/a) + (y/b) = 1，並注意 a, b 不可為 0。</t>
-  </si>
-  <si>
     <t>remainder_theorem_x_a</t>
   </si>
   <si>
@@ -262,9 +231,6 @@
     <t>熟練使用餘式定理求 f(x) 除以 (x-a) 的餘式 R = f(a)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生餘式定理：f(x) 除以 (x-a) 的餘式為 f(a)，檢查學生代入的 a 值是否正確。</t>
-  </si>
-  <si>
     <t>rational_expr_simplify</t>
   </si>
   <si>
@@ -277,9 +243,6 @@
     <t>熟練約分化簡分式（將分子分母因式分解後約去公因式）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生先將分子和分母各自「因式分解」，再檢查是否有「公因式」可以約分。</t>
-  </si>
-  <si>
     <t>rational_expr_ops</t>
   </si>
   <si>
@@ -292,23 +255,172 @@
     <t>熟練分式的加、減（通分）、乘、除（顛倒相乘）運算。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤（加減法），提醒學生必須先「通分」，將分母化為相同。如果錯誤（乘除法），提醒學生先「因式分解」再「約分」。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生中點公式為「兩坐標相加除以 2」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 |x| = c (c&gt;0) 的解為 x = c 或 x = -c。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 |x| &lt; c (c&gt;0) 的解為 -c &lt; x &lt; c（夾在中間）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 |x| &gt; c (c&gt;0) 的解為 x &gt; c 或 x &lt; -c（大於大的，小於小的）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生距離公式 d = √((x₂-x₁)² + (y₂-y₁)²)，並檢查平方和計算。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生中點 M = ( (x₁+x₂)/2 , (y₁+y₂)/2 )。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，請學生複習 P = ( (nx₁+mx₂)/(m+n) , (ny₁+my₂)/(m+n) )，並注意 m, n 的對應位置（交叉相乘）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「任一條」垂直 x 軸的直線，與圖形「最多」只能有一個交點，才是函數圖形。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生畫數線，標出兩根 α, β。若 &gt; 0 則解為 x &gt; β 或 x &lt; α（兩側）；若 &lt; 0 則解為 α &lt; x &lt; β（中間）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生思考 (x-α)²（平方恆大於等於0）。(x-α)² &gt; 0 的解為 x ≠ α；(x-α)² &lt; 0 無解。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生判斷 D &lt; 0 且 a &gt; 0（開口向上），則 ax²+bx+c 恆正；若 D &lt; 0 且 a &lt; 0（開口向下），則 ax²+bx+c 恆負。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生先算斜率 m = (y₂-y₁)/(x₂-x₁)，再任選一點代入點斜式 y - y₁ = m(x - x₁)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生截距式 (x/a) + (y/b) = 1，並注意 a, b 不可為 0。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生餘式定理：f(x) 除以 (x-a) 的餘式為 f(a)，檢查學生代入的 a 值是否正確。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先將分子和分母各自「因式分解」，再檢查是否有「公因式」可以約分。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤（加減法），提醒學生必須先「通分」，將分母化為相同。如果錯誤（乘除法），提醒學生先「因式分解」再「約分」。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -317,36 +429,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -536,20 +655,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -601,481 +725,481 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3390.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3420.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>3430.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>3440.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>3450.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>3460.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>3470.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>3480.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3490.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3510.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3520.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3530.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1084,16 +1208,18 @@
         <v>93</v>
       </c>
       <c r="H17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>3540.0</v>
+        <v>3540</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>